--- a/figures/methods/microscope.xlsx
+++ b/figures/methods/microscope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="5400" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t xml:space="preserve">Live-cell tracking </t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t xml:space="preserve">4k Eagle </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Supplier</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -228,6 +240,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C18"/>
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,161 +541,170 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
